--- a/etf_dfs/EIDO.xlsx
+++ b/etf_dfs/EIDO.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>EIDO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,4900 +426,4953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>22.30999946594238</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>22.30999946594238</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>22.04000091552734</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>22.20999908447266</v>
       </c>
-      <c r="F2">
-        <v>18.74165725708008</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>18.74165916442871</v>
+      </c>
+      <c r="G2" t="n">
         <v>4600</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>24.15999984741211</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>24.15999984741211</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="F3">
-        <v>20.48698806762695</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>20.48698425292969</v>
+      </c>
+      <c r="G3" t="n">
         <v>300</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.08959935886976411</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>25.72999954223633</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>22.03620719909668</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>10100</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.07561982917407861</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.00988502024561793</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>25.29000091552734</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>25.44000053405762</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>25.21999931335449</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>25.25</v>
       </c>
-      <c r="F5">
-        <v>21.37588500976562</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>21.37588119506836</v>
+      </c>
+      <c r="G5" t="n">
         <v>3200</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.02996545009872709</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.06537000075633664</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>29.17000007629395</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>29.23999977111816</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>28.94000053405762</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>29.07999992370605</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>24.61824607849121</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>788900</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.1516831652952892</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.07542969772688692</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>29.95000076293945</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>30.05999946594238</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>29.88999938964844</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>30.05999946594238</v>
       </c>
-      <c r="F7">
-        <v>25.44788360595703</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>25.4478874206543</v>
+      </c>
+      <c r="G7" t="n">
         <v>83500</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.03370012189846783</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.06750220801165938</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>27.97999954223633</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>28.05999946594238</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>27.70000076293945</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>27.8700008392334</v>
       </c>
-      <c r="F8">
-        <v>23.59389495849609</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>23.59389305114746</v>
+      </c>
+      <c r="G8" t="n">
         <v>255000</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.07285424702652532</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.08229560925355421</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>29.09000015258789</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>29.1200008392334</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>29.02000045776367</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>29.10000038146973</v>
       </c>
-      <c r="F9">
-        <v>24.70016860961914</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>24.70017242431641</v>
+      </c>
+      <c r="G9" t="n">
         <v>79200</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.04413345910290833</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.07513291780188894</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>25.86000061035156</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>25.72999954223633</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>25.93000030517578</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>22.00946807861328</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>397700</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.1089347090975482</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.08760692009367722</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>27.38999938964844</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>27.59000015258789</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>27.46999931335449</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>23.31662368774414</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>82700</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.05939062823193719</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.082847897960971</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>29.70999908447266</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>29.70999908447266</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>29.85000038146973</v>
       </c>
-      <c r="F12">
-        <v>25.3367748260498</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>25.33677673339844</v>
+      </c>
+      <c r="G12" t="n">
         <v>389500</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.08664001192596316</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.08035955643447459</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>31.3700008392334</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>31.70000076293945</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>30.85000038146973</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>30.85000038146973</v>
       </c>
-      <c r="F13">
-        <v>26.18557929992676</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>26.18557739257812</v>
+      </c>
+      <c r="G13" t="n">
         <v>65000</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.03350083709281226</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.07623598340135178</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>31.70999908447266</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>31.77000045776367</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>31.48999977111816</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>31.75</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>26.94950103759766</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>174300</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.0291734070470504</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.07269635819263751</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.4295363038622051</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.4295363038622051</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>31.68000030517578</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>32.0099983215332</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>31.68000030517578</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>32.0099983215332</v>
       </c>
-      <c r="F15">
-        <v>27.32364463806152</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>27.32364654541016</v>
+      </c>
+      <c r="G15" t="n">
         <v>543900</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.008188923512856716</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.06993107073243544</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.3227271616682836</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0.3227271616682836</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>33.88000106811523</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>34.45000076293945</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>33.70999908447266</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>34.22000122070312</v>
       </c>
-      <c r="F16">
-        <v>29.2100944519043</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>29.21009826660156</v>
+      </c>
+      <c r="G16" t="n">
         <v>273000</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>0.06904101890199876</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.06796211825548679</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.3146369695740898</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.3146369695740898</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>32.63000106811523</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>32.93999862670898</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>32.54999923706055</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>32.86000061035156</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>28.04920387268066</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>344700</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.0397428568625755</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.06816529730080667</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>0.3013861627862005</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>0.3013861627862005</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>27.22999954223633</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>25.75</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>25.84000015258789</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>22.05695343017578</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>212300</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.2136336070411463</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.08946737299043646</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.111416773714532</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.111416773714532</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30.43000030517578</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>30.43000030517578</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>29.82999992370605</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>29.82999992370605</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>25.46280479431152</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>239900</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.1544117549364086</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.09312689807096307</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.007651348846393513</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.007651348846393513</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>29.3799991607666</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>29.89999961853027</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>29.22999954223633</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>29.86000061035156</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>25.48841094970703</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>255200</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.001005721981972352</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.09047872331680391</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.071402931869194</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.071402931869194</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>29.23999977111816</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>29.40999984741211</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>29.19000053405762</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>29.30999946594238</v>
       </c>
-      <c r="F21">
-        <v>25.1781177520752</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>25.17812156677246</v>
+      </c>
+      <c r="G21" t="n">
         <v>141800</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>-0.01841932796942114</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.08838420287717294</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.007216463289339892</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.007216463289339892</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>30.63999938964844</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>30.72999954223633</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>30.34000015258789</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>30.3700008392334</v>
       </c>
-      <c r="F22">
-        <v>26.08869552612305</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>26.08869361877441</v>
+      </c>
+      <c r="G22" t="n">
         <v>170800</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.03616517886746173</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.08611694510953868</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.1712302538296293</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.1712302538296293</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>30</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>30.36000061035156</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>29.8700008392334</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>29.8700008392334</v>
       </c>
-      <c r="F23">
-        <v>25.65917587280273</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>25.6591796875</v>
+      </c>
+      <c r="G23" t="n">
         <v>228400</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>-0.0164636149549946</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.08430118351956602</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.08736809559045566</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.08736809559045566</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>30.84000015258789</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>30.95000076293945</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>30.69000053405762</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>30.94000053405762</v>
       </c>
-      <c r="F24">
-        <v>26.57833671569824</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>26.57833862304688</v>
+      </c>
+      <c r="G24" t="n">
         <v>121600</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.0358218836545463</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.08235994686289994</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.03651591754298744</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.03651591754298744</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>31.04000091552734</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>31.05999946594238</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>30.80999946594238</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>30.93000030517578</v>
       </c>
-      <c r="F25">
-        <v>26.56974983215332</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>26.56974411010742</v>
+      </c>
+      <c r="G25" t="n">
         <v>77700</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.0003232135975831385</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.08056251832756635</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>0.002593190363592512</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>0.002593190363592512</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>26.98999977111816</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>26.60000038146973</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>26.82999992370605</v>
       </c>
-      <c r="F26">
-        <v>23.0477294921875</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>23.04773139953613</v>
+      </c>
+      <c r="G26" t="n">
         <v>188300</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>-0.132557398674957</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.08455293797602605</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>-0.1549606323242188</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>-0.1549606323242188</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>28.35000038146973</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>28.68000030517578</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>28.31999969482422</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>28.63999938964844</v>
       </c>
-      <c r="F27">
-        <v>24.84564018249512</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>24.84563446044922</v>
+      </c>
+      <c r="G27" t="n">
         <v>166700</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.06746177678305276</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.08352686800857403</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-0.1052795722771956</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>-0.1052795722771956</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>29.79000091552734</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>29.94000053405762</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>29.61000061035156</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>29.76000022888184</v>
       </c>
-      <c r="F28">
-        <v>25.8172550201416</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>25.81725120544434</v>
+      </c>
+      <c r="G28" t="n">
         <v>267500</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.03910617538763672</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.08199074908347762</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>-0.1303331628498886</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>-0.1303331628498886</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>28.38999938964844</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>28.25</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>28.35000038146973</v>
       </c>
-      <c r="F29">
-        <v>24.59405517578125</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>24.59405326843262</v>
+      </c>
+      <c r="G29" t="n">
         <v>463500</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.04737902676639483</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.08128086892972608</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>-0.1372489392912882</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.1372489392912882</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>29.70000076293945</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>29.95000076293945</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>29.64999961853027</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>29.8700008392334</v>
       </c>
-      <c r="F30">
-        <v>25.91267585754395</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>25.91267967224121</v>
+      </c>
+      <c r="G30" t="n">
         <v>317700</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.05361553570761801</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.08014116932001349</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.1559597779739912</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.1559597779739912</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>30.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>30.64999961853027</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>30.38999938964844</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>30.47999954223633</v>
       </c>
-      <c r="F31">
-        <v>26.44186210632324</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>26.44186019897461</v>
+      </c>
+      <c r="G31" t="n">
         <v>287000</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.02042178392582139</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.07870650832436069</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.02179013141779174</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.02179013141779174</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>30.18000030517578</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>30.22999954223633</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>29.8799991607666</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>29.95999908447266</v>
       </c>
-      <c r="F32">
-        <v>25.99075698852539</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>25.99075508117676</v>
+      </c>
+      <c r="G32" t="n">
         <v>328800</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>-0.01706038272878263</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.07754633428442413</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.003348910652279935</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.003348910652279935</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>29.89999961853027</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>30.38999938964844</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>29.8799991607666</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>30.26000022888184</v>
       </c>
-      <c r="F33">
-        <v>26.31489944458008</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>26.31489753723145</v>
+      </c>
+      <c r="G33" t="n">
         <v>197500</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.01001338963874199</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.0762448858214842</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.03241217264583485</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.03241217264583485</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>30.43000030517578</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>30.80999946594238</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>30.43000030517578</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>30.78000068664551</v>
       </c>
-      <c r="F34">
-        <v>26.76710319519043</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>26.76711082458496</v>
+      </c>
+      <c r="G34" t="n">
         <v>278900</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>0.01718441684833016</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.0750087892001904</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.01350015923879888</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.01350015923879888</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>34.25</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>33.95000076293945</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>34.11000061035156</v>
       </c>
-      <c r="F35">
-        <v>29.66295433044434</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>29.6629581451416</v>
+      </c>
+      <c r="G35" t="n">
         <v>402900</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>0.1081871296107813</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.07566109166977505</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.1419484316032908</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.1419484316032908</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>34.59999847412109</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>34.88999938964844</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>34.59999847412109</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>34.84000015258789</v>
       </c>
-      <c r="F36">
-        <v>30.29778480529785</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>30.29779052734375</v>
+      </c>
+      <c r="G36" t="n">
         <v>437600</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>0.02140133477496309</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.07451173308561386</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.1260504056629637</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.1260504056629637</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>35.5099983215332</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>35.61999893188477</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>35.11000061035156</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>35.56999969482422</v>
       </c>
-      <c r="F37">
-        <v>30.9326114654541</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>30.93261909484863</v>
+      </c>
+      <c r="G37" t="n">
         <v>343600</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>0.02095291443855252</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.07341233691911835</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.1500161443216017</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.1500161443216017</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>34.40999984741211</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>34.59999847412109</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>29.40207481384277</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>592100</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>-0.04947985202792393</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.07318084252302633</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.2601565959535346</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.2601565959535346</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>31.25</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>31.5</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>30.93000030517578</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>31.17000007629395</v>
       </c>
-      <c r="F39">
-        <v>27.45420837402344</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>27.4542064666748</v>
+      </c>
+      <c r="G39" t="n">
         <v>1125400</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.07808344246571375</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.07374285280062624</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.08833801468445368</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.08833801468445368</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>29.02000045776367</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>29.3700008392334</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>28.98999977111816</v>
       </c>
-      <c r="F40">
-        <v>25.53408813476562</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>25.53408622741699</v>
+      </c>
+      <c r="G40" t="n">
         <v>165100</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.06993905357201968</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.07394207827632952</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.02587367109682992</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.02587367109682992</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>23.59000015258789</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>23.59000015258789</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>22.63999938964844</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>23.02000045776367</v>
       </c>
-      <c r="F41">
-        <v>20.27577590942383</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>20.27577209472656</v>
+      </c>
+      <c r="G41" t="n">
         <v>1154300</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>-0.2059330583128262</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.08072587023241208</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>-0.1880070494528062</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-0.1880070494528062</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>23.79999923706055</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>23.59000015258789</v>
       </c>
-      <c r="F42">
-        <v>20.77782249450684</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>20.77782440185547</v>
+      </c>
+      <c r="G42" t="n">
         <v>953600</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>0.02476106357469599</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.07975018702806529</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-0.2102444094476524</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-0.2102444094476524</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>26.28000068664551</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>25.52000045776367</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="F43">
-        <v>22.61867523193359</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>22.61867332458496</v>
+      </c>
+      <c r="G43" t="n">
         <v>798600</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.08859686897283092</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.07982805653096382</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.1574802922949247</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.1574802922949247</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>23.19000053405762</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>22.80999946594238</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>23.11000061035156</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>20.35504722595215</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>227700</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.100077868546841</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.08055489126436437</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.2286381403019213</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.2286381403019213</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>22.82999992370605</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>22.90999984741211</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>22.59000015258789</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>22.84000015258789</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>20.18307685852051</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>436100</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>-0.01168327350206699</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.07962725592811153</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.2452081963043702</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.2452081963043702</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>22.89999961853027</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>23.32999992370605</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>22.39999961853027</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>23.20000076293945</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>20.50119590759277</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>287000</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>0.01576184798364699</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.07871626188482539</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.2462637996949357</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.2462637996949357</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>25.95000076293945</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>25.55999946594238</v>
       </c>
-      <c r="F47">
-        <v>22.5866641998291</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>22.58666038513184</v>
+      </c>
+      <c r="G47" t="n">
         <v>458800</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.1017240786807594</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.07916411326735986</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>-0.2506596596721977</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>-0.2506596596721977</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>27.89999961853027</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>28.10000038146973</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>27.6200008392334</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>27.63999938964844</v>
       </c>
-      <c r="F48">
-        <v>24.42470550537109</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>24.42469787597656</v>
+      </c>
+      <c r="G48" t="n">
         <v>718400</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.0813771505151073</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.07905780162383289</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>-0.2066590336224393</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>-0.2066590336224393</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>27.6200008392334</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>27.75</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>27.3799991607666</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>27.68000030517578</v>
       </c>
-      <c r="F49">
-        <v>24.46004867553711</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>24.46005058288574</v>
+      </c>
+      <c r="G49" t="n">
         <v>281600</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.001447211158127848</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.07819952464047063</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>-0.221816121938188</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>-0.221816121938188</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>27.8700008392334</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>27.92000007629395</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>27.31999969482422</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>27.40999984741211</v>
       </c>
-      <c r="F50">
-        <v>24.22145462036133</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>24.22146034240723</v>
+      </c>
+      <c r="G50" t="n">
         <v>748800</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>-0.009754351690277496</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.07740471922874058</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>-0.1892931459900719</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>-0.1892931459900719</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>26.6299991607666</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>26.68000030517578</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>26.20000076293945</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>26.3799991607666</v>
       </c>
-      <c r="F51">
-        <v>23.56667327880859</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>23.56667709350586</v>
+      </c>
+      <c r="G51" t="n">
         <v>693300</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.0375775517103023</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.07686385868855533</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>-0.1536734329099452</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>-0.1536734329099452</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>28.15999984741211</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>28.6200008392334</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>27.46999931335449</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>27.73999977111816</v>
       </c>
-      <c r="F52">
-        <v>24.78163719177246</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>24.78163528442383</v>
+      </c>
+      <c r="G52" t="n">
         <v>1069600</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.0515542325101439</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.07634143370359564</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>-0.04311831700134527</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>-0.04311831700134527</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>28.89999961853027</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>28.98999977111816</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>28.54000091552734</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>28.75</v>
       </c>
-      <c r="F53">
-        <v>25.68392753601074</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>25.68392562866211</v>
+      </c>
+      <c r="G53" t="n">
         <v>662500</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>0.03640952549442367</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.0756829886281663</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.2489139630014143</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.2489139630014143</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>27.1299991607666</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>27.32999992370605</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>27.11000061035156</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>27.21999931335449</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>24.31709480285645</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>628900</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>-0.05321741518766987</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.07541671002389481</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.1538787256162175</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.1538787256162175</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>27.52000045776367</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>27.79000091552734</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>27.56999969482422</v>
       </c>
-      <c r="F55">
-        <v>24.62977027893066</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>24.62976837158203</v>
+      </c>
+      <c r="G55" t="n">
         <v>763100</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.01285820684418648</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.07469262450644064</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.07359810619891261</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.07359810619891261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>27.6299991607666</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>27.73999977111816</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>27.43000030517578</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>27.51000022888184</v>
       </c>
-      <c r="F56">
-        <v>24.5761661529541</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>24.57616996765137</v>
+      </c>
+      <c r="G56" t="n">
         <v>662900</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.002176259216776333</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.07399502210832808</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.1903937473960688</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.1903937473960688</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>27.84000015258789</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>27.84000015258789</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>27.3799991607666</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>27.44000053405762</v>
       </c>
-      <c r="F57">
-        <v>24.58817100524902</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>24.58817291259766</v>
+      </c>
+      <c r="G57" t="n">
         <v>414000</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>-0.002544518147649</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.07331744304868701</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.2014010661444117</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.2014010661444117</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>26.92000007629395</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>26.61000061035156</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>23.84443092346191</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>1189300</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.03024781004198185</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.07281456173165297</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.1469827472100504</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.1469827472100504</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>27.75</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>27.89999961853027</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>27.57999992370605</v>
       </c>
-      <c r="F59">
-        <v>24.71361923217773</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>24.71362113952637</v>
+      </c>
+      <c r="G59" t="n">
         <v>478600</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>0.03645243484049954</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.07227455834644027</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0.07902975351995756</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>0.07902975351995756</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>27.57999992370605</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>27.86000061035156</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>27.20999908447266</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>27.75</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>24.8659553527832</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>487000</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>0.006163889657875732</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.07163777764740549</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>0.003979761678025273</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>0.003979761678025273</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>24.70000076293945</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>24.76000022888184</v>
       </c>
-      <c r="F61">
-        <v>22.18670272827148</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>22.18670463562012</v>
+      </c>
+      <c r="G61" t="n">
         <v>1951500</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.1077477394997537</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.07255767981286985</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.1054913310729966</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.1054913310729966</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>25.67000007629395</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>25.90999984741211</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>25.67000007629395</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>25.70999908447266</v>
       </c>
-      <c r="F62">
-        <v>23.03797149658203</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>23.03796768188477</v>
+      </c>
+      <c r="G62" t="n">
         <v>756400</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>0.03836828945109105</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.07207261017734556</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.06202118834013626</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.06202118834013626</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>23.3799991607666</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>23.38999938964844</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>23.1200008392334</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>23.17000007629395</v>
       </c>
-      <c r="F63">
-        <v>21.03219985961914</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>21.03220367431641</v>
+      </c>
+      <c r="G63" t="n">
         <v>537000</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.09879420842580744</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.07269692776329881</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.121683062418239</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.121683062418239</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>22.51000022888184</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>22.36000061035156</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>22.54000091552734</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>20.4603271484375</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>862000</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.0271902960160616</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.07220317158096552</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.1874548990085019</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.1874548990085019</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>20.15999984741211</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>20.22999954223633</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>19.79999923706055</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>19.93000030517578</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>18.09114265441895</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>1227600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.1157941661197355</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.07316321145417806</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.3067825980808424</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.3067825980808424</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>17.69000053405762</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>17.73999977111816</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>17.47999954223633</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>17.69000053405762</v>
       </c>
-      <c r="F66">
-        <v>16.05781745910645</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>16.05782127380371</v>
+      </c>
+      <c r="G66" t="n">
         <v>579000</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.1123933636135691</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.07395181473315472</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.3501101770646016</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.3501101770646016</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>20.47999954223633</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>20.47999954223633</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>20.05999946594238</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>20.14999961853027</v>
       </c>
-      <c r="F67">
-        <v>18.29084205627441</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>18.29084968566895</v>
+      </c>
+      <c r="G67" t="n">
         <v>1101300</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>0.139061560780428</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.07539331538665894</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.2691331214518264</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.2691331214518264</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>20.46999931335449</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>20.55999946594238</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>20.14999961853027</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>20.42000007629395</v>
       </c>
-      <c r="F68">
-        <v>18.53593444824219</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>18.53593254089355</v>
+      </c>
+      <c r="G68" t="n">
         <v>909200</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.0133995266935576</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.074825698964351</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>-0.2577244672337129</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>-0.2577244672337129</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>21.02000045776367</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>21.02000045776367</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>20.79000091552734</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>20.8700008392334</v>
       </c>
-      <c r="F69">
-        <v>18.98100852966309</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>18.98100471496582</v>
+      </c>
+      <c r="G69" t="n">
         <v>142500</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>0.0220372556933468</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.07429871394703426</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.2394314710989074</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.2394314710989074</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>21.29000091552734</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>21.68000030517578</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>21.18000030517578</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>21.64999961853027</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>19.69040679931641</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>853700</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>0.03737416137667604</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.07386762568164945</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.1863961246920001</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.1863961246920001</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>22.67000007629395</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>22.88999938964844</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>22.57999992370605</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>22.69000053405762</v>
       </c>
-      <c r="F71">
-        <v>20.63627243041992</v>
-      </c>
-      <c r="G71">
+      <c r="F71" t="n">
+        <v>20.63627433776855</v>
+      </c>
+      <c r="G71" t="n">
         <v>801200</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>0.0480369946351964</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.07352793673970622</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.1773023713986779</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.1773023713986779</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>23.59000015258789</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>23.52000045776367</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>23.55999946594238</v>
       </c>
-      <c r="F72">
-        <v>21.42752838134766</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>21.42752647399902</v>
+      </c>
+      <c r="G72" t="n">
         <v>1068600</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.03834283435026364</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.07311482944275255</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>-0.1509910102363106</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>-0.1509910102363106</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>23.11000061035156</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>23.20999908447266</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>22.8700008392334</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>23.09000015258789</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>21.00006866455078</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>696200</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>-0.01994903752158017</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.07264436274633346</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>-0.06744749841908071</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>-0.06744749841908071</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>22.35000038146973</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>22.47999954223633</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>22.22999954223633</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>22.3700008392334</v>
       </c>
-      <c r="F74">
-        <v>20.34523963928223</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>20.34523582458496</v>
+      </c>
+      <c r="G74" t="n">
         <v>1075600</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>-0.03118230006914036</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.07224497253992999</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>-0.1299104770196753</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>-0.1299104770196753</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>24.3700008392334</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>24.51000022888184</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>24.17000007629395</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>24.45999908447266</v>
       </c>
-      <c r="F75">
-        <v>22.48713493347168</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>22.48713302612305</v>
+      </c>
+      <c r="G75" t="n">
         <v>1193800</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>0.09342861720298812</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.07252204942973636</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>0.05567539939279298</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>0.05567539939279298</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>25.79999923706055</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>26.04000091552734</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>25.97999954223633</v>
       </c>
-      <c r="F76">
-        <v>23.88453674316406</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>23.88453483581543</v>
+      </c>
+      <c r="G76" t="n">
         <v>951200</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.06214229413968275</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.07233998179359574</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>0.1526175016407936</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>0.1526175016407936</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>25.63999938964844</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>25.63999938964844</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>25.35000038146973</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>25.52000045776367</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>23.46163749694824</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>1181100</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>-0.01770589270892109</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.07189648519691763</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>0.2804816892620006</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>0.2804816892620006</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>26.3799991607666</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>26.72999954223633</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>26.31999969482422</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>26.44000053405762</v>
       </c>
-      <c r="F78">
-        <v>24.30743408203125</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>24.30743598937988</v>
+      </c>
+      <c r="G78" t="n">
         <v>1385900</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.03605015908273868</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.07150725296840502</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.4946297193803975</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.4946297193803975</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>26.11000061035156</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>26.30999946594238</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>26.11000061035156</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>26.25</v>
       </c>
-      <c r="F79">
-        <v>24.13275718688965</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>24.13276290893555</v>
+      </c>
+      <c r="G79" t="n">
         <v>459000</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>-0.007186101748102303</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.07104862081641074</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.3027295531986047</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.3027295531986047</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>23.27000045776367</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>23.43000030517578</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>23.23999977111816</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>23.35000038146973</v>
       </c>
-      <c r="F80">
-        <v>21.46666526794434</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>21.4666633605957</v>
+      </c>
+      <c r="G80" t="n">
         <v>985300</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>-0.1104761759440104</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.07178139855630752</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>0.1434867920777967</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>0.1434867920777967</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>24.35000038146973</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>24.3700008392334</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>24.04000091552734</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>24.1299991607666</v>
       </c>
-      <c r="F81">
-        <v>22.20766258239746</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>22.20766067504883</v>
+      </c>
+      <c r="G81" t="n">
         <v>479000</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.03340465809653148</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.07140030220495723</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.1562049923546123</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.1562049923546123</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>24.27000045776367</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>24.45000076293945</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>24.27000045776367</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>24.40999984741211</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>22.46535491943359</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>727400</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.0116038415409796</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.07095252899633711</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.1274826918019687</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.1274826918019687</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>24.68000030517578</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>24.76000022888184</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>24.46999931335449</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>24.48999977111816</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>22.53898239135742</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>2015600</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>0.003277342245233017</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.07050770104871655</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.07933006587455793</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.07933006587455793</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>25.72999954223633</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>25.92000007629395</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>25.72999954223633</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>25.79000091552734</v>
       </c>
-      <c r="F84">
-        <v>23.73541831970215</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>23.73541641235352</v>
+      </c>
+      <c r="G84" t="n">
         <v>604500</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.05308293820166998</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.07028259787428497</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.09465201613474505</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.09465201613474505</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>26.54000091552734</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>26.54000091552734</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>26.28000068664551</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>26.32999992370605</v>
       </c>
-      <c r="F85">
-        <v>24.23239707946777</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>24.23239517211914</v>
+      </c>
+      <c r="G85" t="n">
         <v>939200</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>0.02093830899608817</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.06987645872416227</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>0.1403204742185777</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>0.1403204742185777</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>26.86000061035156</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>26.94000053405762</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>26.55999946594238</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>24.44407272338867</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>1248400</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>0.008735265586888641</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.06945574215597664</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>0.1873043571531923</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>0.1873043571531923</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>27.11000061035156</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>27.3799991607666</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>27.11000061035156</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>27.20999908447266</v>
       </c>
-      <c r="F87">
-        <v>25.34981536865234</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>25.34981346130371</v>
+      </c>
+      <c r="G87" t="n">
         <v>384800</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>0.02447287769579076</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.06907471986230902</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.1124284588279365</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.1124284588279365</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>26.85000038146973</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>26.90999984741211</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>26.79000091552734</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>26.8700008392334</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>25.03306007385254</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>279600</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.01249534203157243</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.06869261505052482</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>0.03425717138871276</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>0.03425717138871276</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>26.8799991607666</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>26.96999931335449</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>26.8799991607666</v>
       </c>
-      <c r="F89">
-        <v>25.0423755645752</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>25.04237174987793</v>
+      </c>
+      <c r="G89" t="n">
         <v>257400</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>0.0003720997849245844</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.06829359846665944</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>0.05329148427147423</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>0.05329148427147423</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>26.54000091552734</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>26.78000068664551</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>26.46999931335449</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>26.69000053405762</v>
       </c>
-      <c r="F90">
-        <v>24.86536598205566</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>24.8653678894043</v>
+      </c>
+      <c r="G90" t="n">
         <v>795000</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.007068401511942768</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.06791133043934526</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>0.009455370459541923</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>0.009455370459541923</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>26.61000061035156</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>26.72999954223633</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>26.61000061035156</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>26.70000076293945</v>
       </c>
-      <c r="F91">
-        <v>24.87468528747559</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>24.87468338012695</v>
+      </c>
+      <c r="G91" t="n">
         <v>358200</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>0.0003746807299263022</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.06752575010451217</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>0.01714288620721716</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>0.01714288620721716</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>26.93000030517578</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>26.97999954223633</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>26.67000007629395</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>26.68000030517578</v>
       </c>
-      <c r="F92">
-        <v>24.85605049133301</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>24.85604667663574</v>
+      </c>
+      <c r="G92" t="n">
         <v>1062400</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>-0.000749080793714163</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.06714751776778922</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>0.1426124141029437</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>0.1426124141029437</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>28.47999954223633</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>28.57999992370605</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>28.38999938964844</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>28.43000030517578</v>
       </c>
-      <c r="F93">
-        <v>26.5154857635498</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>26.51548385620117</v>
+      </c>
+      <c r="G93" t="n">
         <v>906400</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>0.06559220314778291</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.06708137369572321</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>0.1782014626590054</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>0.1782014626590054</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>29.92000007629395</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>30</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>29.54000091552734</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>29.79000091552734</v>
       </c>
-      <c r="F94">
-        <v>27.78390502929688</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>27.78390121459961</v>
+      </c>
+      <c r="G94" t="n">
         <v>1067300</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>0.0478368130760789</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.06686095913835026</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>0.2204015199404277</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>0.2204015199404277</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>29.05999946594238</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>29.1299991607666</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>28.59000015258789</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>28.61000061035156</v>
       </c>
-      <c r="F95">
-        <v>26.68336486816406</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>26.6833667755127</v>
+      </c>
+      <c r="G95" t="n">
         <v>1116700</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.03961061661333265</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.0666608140235046</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>0.1682319672412675</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>0.1682319672412675</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>27.04000091552734</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>26.95999908447266</v>
       </c>
-      <c r="F96">
-        <v>25.14447784423828</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>25.14447593688965</v>
+      </c>
+      <c r="G96" t="n">
         <v>1718500</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>-0.05767219471089102</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.06661583081450922</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>0.04536634848434207</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>0.04536634848434207</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>26</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>25.35000038146973</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>25.36000061035156</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>23.6522274017334</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>628700</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>-0.05934712642637285</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.06658188107777969</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>-0.03684008037087605</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>-0.03684008037087605</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>25.38999938964844</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>25.67000007629395</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>25.09000015258789</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>25.52000045776367</v>
       </c>
-      <c r="F98">
-        <v>23.80145072937012</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>23.80144882202148</v>
+      </c>
+      <c r="G98" t="n">
         <v>1630800</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>0.006309142096266429</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.06623107341003806</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.03915658995069982</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.03915658995069982</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>22.93000030517578</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>23.06999969482422</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>22.75</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="F99">
-        <v>21.82693481445312</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>21.82693672180176</v>
+      </c>
+      <c r="G99" t="n">
         <v>901200</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>-0.09992167314532396</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.0667198503650199</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.1558250611459121</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.1558250611459121</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>23.8799991607666</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>23.64999961853027</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>23.77000045776367</v>
       </c>
-      <c r="F100">
-        <v>22.58712577819824</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>22.58712768554688</v>
+      </c>
+      <c r="G100" t="n">
         <v>1982500</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.03482808743246535</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.0664547183624996</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.115370312044924</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.115370312044924</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>23.25</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>23.5</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>23.13999938964844</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>23.3700008392334</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>22.20703125</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>1189100</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.01682791799861438</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.06614467376163531</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.1305802987768062</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.1305802987768062</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>22.95999908447266</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>23.14999961853027</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>22.90999984741211</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="F102">
-        <v>21.82693481445312</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>21.82693672180176</v>
+      </c>
+      <c r="G102" t="n">
         <v>1032400</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>-0.0171160253108501</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.06583974555376812</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.1393780871587559</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.1393780871587559</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>22.06999969482422</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>22.19000053405762</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>21.96999931335449</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>22.01000022888184</v>
       </c>
-      <c r="F103">
-        <v>20.91470718383789</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>20.91470909118652</v>
+      </c>
+      <c r="G103" t="n">
         <v>990400</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.04179360527514353</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.06565816819443429</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>-0.1756554456944999</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>-0.1756554456944999</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>24.90999984741211</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>24.94000053405762</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>24.70999908447266</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>24.71999931335449</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>23.48984909057617</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>1661700</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>0.1231258090091503</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.06642197579341561</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>-0.07346330470022744</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>-0.07346330470022744</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>25.14999961853027</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>24.69000053405762</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>24.81999969482422</v>
       </c>
-      <c r="F105">
-        <v>23.63054466247559</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>23.63053894042969</v>
+      </c>
+      <c r="G105" t="n">
         <v>854700</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>0.004045322987355604</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.06609561664534819</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>-0.126978563897319</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>-0.126978563897319</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>27.44000053405762</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>27.73999977111816</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>27.38999938964844</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>27.68000030517578</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>26.35348129272461</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>1487000</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>0.1152296795131695</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.06668331089455584</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>-0.07082915560609382</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>-0.07082915560609382</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>25.71999931335449</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>25.72999954223633</v>
       </c>
-      <c r="F107">
-        <v>24.49693298339844</v>
-      </c>
-      <c r="G107">
+      <c r="F107" t="n">
+        <v>24.49692916870117</v>
+      </c>
+      <c r="G107" t="n">
         <v>1558400</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>-0.07044800366475534</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.06676255802084023</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>-0.1006641386464425</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>-0.1006641386464425</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>25.82999992370605</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>25.82999992370605</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>25.55999946594238</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="F108">
-        <v>24.44932746887207</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>24.4493293762207</v>
+      </c>
+      <c r="G108" t="n">
         <v>873600</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.001943227281386961</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.06644611828919948</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>-0.04747770114109828</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>-0.04747770114109828</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>26</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>26.1200008392334</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>25.86000061035156</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>26.1200008392334</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>24.86824226379395</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>788100</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.0171339769793124</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.06614485703860323</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>0.02996846256271835</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>0.02996846256271835</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>24.92000007629395</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>24.76000022888184</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>24.09705924987793</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>1596100</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>-0.03101077133482932</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.06591993259417368</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>-0.008228878842257314</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>-0.008228878842257314</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>26.05999946594238</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>25.95999908447266</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>25.15672874450684</v>
       </c>
-      <c r="G111">
+      <c r="G111" t="n">
         <v>1071700</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.02686686367144353</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.06565245171025584</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>0.1314758619086192</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>0.1314758619086192</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>26.1200008392334</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>25.38999938964844</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>25.71999931335449</v>
       </c>
-      <c r="F112">
-        <v>24.8953857421875</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>24.89538383483887</v>
+      </c>
+      <c r="G112" t="n">
         <v>1596600</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>-0.01038862870878954</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.06536428271591255</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.08203613033393609</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.08203613033393609</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>25.22999954223633</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>25.31999969482422</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>25.05999946594238</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>25.19000053405762</v>
       </c>
-      <c r="F113">
-        <v>24.38237953186035</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>24.38237762451172</v>
+      </c>
+      <c r="G113" t="n">
         <v>460200</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>-0.02060648497069306</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.06510674676192101</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.07787760502638985</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.07787760502638985</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>24.3799991607666</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>24.60000038146973</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>24.3799991607666</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>24.46999931335449</v>
       </c>
-      <c r="F114">
-        <v>23.68546104431152</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>23.68546295166016</v>
+      </c>
+      <c r="G114" t="n">
         <v>660900</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>-0.02858281879469049</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.06488275861636388</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>0.06530257051979604</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>0.06530257051979604</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>25.10000038146973</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>25.18000030517578</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>24.89999961853027</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="F115">
-        <v>24.15975189208984</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>24.15974998474121</v>
+      </c>
+      <c r="G115" t="n">
         <v>524700</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>0.02002451102852087</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.06461228570482451</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.1340299329810906</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.1340299329810906</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>24.1200008392334</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>24.15999984741211</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>24.03000068664551</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>24.03000068664551</v>
       </c>
-      <c r="F116">
-        <v>23.25957107543945</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>23.25956916809082</v>
+      </c>
+      <c r="G116" t="n">
         <v>326700</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.03725955256167013</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.06443704818424696</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>-0.02791256658070485</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>-0.02791256658070485</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>25.55999946594238</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>25.70000076293945</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>25.48999977111816</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>25.65999984741211</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>24.88296699523926</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>255200</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.06783183995797648</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.06443974703103768</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>0.03384368101999047</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>0.03384368101999047</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>24.28000068664551</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>24.28000068664551</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>23.94000053405762</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>24.18000030517578</v>
       </c>
-      <c r="F118">
-        <v>23.44778251647949</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>23.44778442382812</v>
+      </c>
+      <c r="G118" t="n">
         <v>1094500</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>-0.05767730128749748</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.06440884858702538</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>-0.126445085311128</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>-0.126445085311128</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>21.01000022888184</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>21.65999984741211</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>20.57999992370605</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>21.6200008392334</v>
       </c>
-      <c r="F119">
-        <v>20.96530532836914</v>
-      </c>
-      <c r="G119">
+      <c r="F119" t="n">
+        <v>20.96530342102051</v>
+      </c>
+      <c r="G119" t="n">
         <v>3525200</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>-0.1058725985786861</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.06491344942650036</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>-0.1597356694956905</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>-0.1597356694956905</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>14.69999980926514</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>14.93000030517578</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>14.5600004196167</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>14.72999954223633</v>
       </c>
-      <c r="F120">
-        <v>14.2839469909668</v>
-      </c>
-      <c r="G120">
+      <c r="F120" t="n">
+        <v>14.28394603729248</v>
+      </c>
+      <c r="G120" t="n">
         <v>936200</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>-0.3186864491001276</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.07105490769560376</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>-0.4264018938010873</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>-0.4264018938010873</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>16.52000045776367</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>16.75</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>16.15999984741211</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>16.29000091552734</v>
       </c>
-      <c r="F121">
-        <v>15.796706199646</v>
-      </c>
-      <c r="G121">
+      <c r="F121" t="n">
+        <v>15.79670810699463</v>
+      </c>
+      <c r="G121" t="n">
         <v>682500</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>0.1059064101677611</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.07142619080632269</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>-0.3763399543594562</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>-0.3763399543594562</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>17.34000015258789</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>17.40999984741211</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>17.04000091552734</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>17.30999946594238</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>16.78582000732422</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>1019400</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>0.06261500878387261</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.07135406795322541</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>-0.3160806072226494</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>-0.3160806072226494</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>18.1200008392334</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>18.13999938964844</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>17.89999961853027</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>18</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>17.6285400390625</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>1279600</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>0.03986138390213134</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.07097629090795496</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>-0.307425926951996</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>-0.307425926951996</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>18.77000045776367</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>18.81999969482422</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>18.52000045776367</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>18.73999977111816</v>
       </c>
-      <c r="F124">
-        <v>18.35326766967773</v>
-      </c>
-      <c r="G124">
+      <c r="F124" t="n">
+        <v>18.35326957702637</v>
+      </c>
+      <c r="G124" t="n">
         <v>935600</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>0.04111109839545346</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.0707376575507086</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>-0.2713841263056384</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>-0.2713841263056384</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>19.63999938964844</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>19.65999984741211</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>19.38999938964844</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>19.61000061035156</v>
       </c>
-      <c r="F125">
-        <v>19.2053165435791</v>
-      </c>
-      <c r="G125">
+      <c r="F125" t="n">
+        <v>19.20531463623047</v>
+      </c>
+      <c r="G125" t="n">
         <v>924000</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.04642480522194203</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.07081020285866252</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>-0.221516467066435</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>-0.221516467066435</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>17.21999931335449</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>17.42000007629395</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>17.21999931335449</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>17.27000045776367</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>16.91360473632812</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>499900</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.1193268781109915</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.07026917961543215</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.2942378037444988</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.2942378037444988</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>18.20999908447266</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>18.28000068664551</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>18.11000061035156</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>18.28000068664551</v>
       </c>
-      <c r="F127">
-        <v>17.90276336669922</v>
-      </c>
-      <c r="G127">
+      <c r="F127" t="n">
+        <v>17.90276145935059</v>
+      </c>
+      <c r="G127" t="n">
         <v>284500</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>0.05848293005851035</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.07041039845630166</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>-0.2676281507551297</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>-0.2676281507551297</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>21.93000030517578</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>21.96999931335449</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>21.73999977111816</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>21.76000022888184</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>21.31094741821289</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>1923100</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>0.1903719590546105</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.0722451715540975</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.09446526811899791</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.09446526811899791</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>23.56999969482422</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>23.56999969482422</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>23.13999938964844</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>23.42000007629395</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>23.10845375061035</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>627600</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>0.07628675689115139</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.07246692901902278</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.08729539300227529</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.08729539300227529</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>22.76000022888184</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>22.76000022888184</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>22.42000007629395</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>22.45000076293945</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>22.15135765075684</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>1047500</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.04141756234818883</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.07186614227340161</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.07154671300256432</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.07154671300256432</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>23.07999992370605</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>23.1200008392334</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>22.64999961853027</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>22.85000038146973</v>
       </c>
-      <c r="F131">
-        <v>22.5460376739502</v>
-      </c>
-      <c r="G131">
+      <c r="F131" t="n">
+        <v>22.54603576660156</v>
+      </c>
+      <c r="G131" t="n">
         <v>984800</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>0.0178173543401654</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.07168480882194077</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>0.05689174350096571</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>0.05689174350096571</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>21.65999984741211</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>21.88999938964844</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>21.56999969482422</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>21.85000038146973</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>21.55933952331543</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>849400</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.04376367541818305</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.07136604452545722</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>0.4833673496606525</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>0.4833673496606525</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>21.80999946594238</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>21.8700008392334</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>21.54000091552734</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>21.63999938964844</v>
       </c>
-      <c r="F133">
-        <v>21.35213279724121</v>
-      </c>
-      <c r="G133">
+      <c r="F133" t="n">
+        <v>21.35213088989258</v>
+      </c>
+      <c r="G133" t="n">
         <v>805900</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>-0.00961102920617718</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.07130492023152743</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>0.3284222328693407</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>0.3284222328693407</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>21.21999931335449</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>21.42000007629395</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>21.15999984741211</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>21.36000061035156</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>21.07585716247559</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>842400</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>-0.01293894580379762</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.07126240911908366</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>0.2339688774905859</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>0.2339688774905859</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>20.21999931335449</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>20.31999969482422</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>20.17000007629395</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>20.28000068664551</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>20.13927459716797</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>1401700</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>-0.05056179273621653</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.07140304883634202</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>0.1266667048136394</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>0.1266667048136394</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>19.97999954223633</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>20.13999938964844</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>19.94000053405762</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>20.09000015258789</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>19.95059394836426</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>297000</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>-0.009368862308901882</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.07111386996535973</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>0.07203844172668172</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>0.07203844172668172</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>21.3700008392334</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>21.3700008392334</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>21.21999931335449</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>21.26000022888184</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>21.11247444152832</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>1307200</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>0.05823793267334709</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.07123653445166651</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>0.08414072244644832</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>0.08414072244644832</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>21.82999992370605</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>21.95999908447266</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>21.68000030517578</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>21.69000053405762</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>21.53949165344238</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>1005500</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="n">
         <v>0.02022579024207261</v>
       </c>
-      <c r="I138">
+      <c r="I138" t="n">
         <v>0.06851608046195164</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="n">
         <v>0.2559351452887164</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="n">
         <v>0.2559351452887164</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>23.90999984741211</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>23.96999931335449</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>23.93000030517578</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>23.76394653320312</v>
       </c>
-      <c r="G139">
+      <c r="G139" t="n">
         <v>576500</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="n">
         <v>0.1032733847839662</v>
       </c>
-      <c r="I139">
+      <c r="I139" t="n">
         <v>0.06770815586538917</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="n">
         <v>0.309080930322825</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="n">
         <v>0.309080930322825</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>23.19000053405762</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>23.36000061035156</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>23.04000091552734</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>23.31999969482422</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>23.15818023681641</v>
       </c>
-      <c r="G140">
+      <c r="G140" t="n">
         <v>1475000</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="n">
         <v>-0.02549104064238672</v>
       </c>
-      <c r="I140">
+      <c r="I140" t="n">
         <v>0.06774993100664241</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="n">
         <v>0.07169115117341818</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="n">
         <v>0.07169115117341818</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>23.04999923706055</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>23.18000030517578</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>184800</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="n">
         <v>-0.01500859288379008</v>
       </c>
-      <c r="I141">
+      <c r="I141" t="n">
         <v>0.06774270397767207</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="n">
         <v>-0.01921437922602531</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="n">
         <v>-0.01921437922602531</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B142">
-        <v>23.20999908447266</v>
-      </c>
-      <c r="C142">
-        <v>23.27000045776367</v>
-      </c>
-      <c r="D142">
-        <v>23.10000038146973</v>
-      </c>
-      <c r="E142">
-        <v>23.17799949645996</v>
-      </c>
-      <c r="F142">
-        <v>23.17799949645996</v>
-      </c>
-      <c r="G142">
-        <v>340350</v>
-      </c>
-      <c r="H142">
-        <v>0.009055297750250269</v>
-      </c>
-      <c r="I142">
-        <v>0.06766753194330598</v>
-      </c>
-      <c r="J142">
-        <v>0.03242755941114672</v>
-      </c>
-      <c r="K142">
-        <v>0.03242755941114672</v>
+      <c r="B142" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.32500076293945</v>
+      </c>
+      <c r="D142" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="E142" t="n">
+        <v>23.30500030517578</v>
+      </c>
+      <c r="F142" t="n">
+        <v>23.30500030517578</v>
+      </c>
+      <c r="G142" t="n">
+        <v>155114</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0145842839284076</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.067675523892441</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03808461083207471</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.03808461083207471</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>